--- a/src/main/resources/static/excel/注意事项.xlsx
+++ b/src/main/resources/static/excel/注意事项.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22860" windowHeight="13405"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>编码</t>
   </si>
@@ -41,32 +41,6 @@
   </si>
   <si>
     <t>修改</t>
-  </si>
-  <si>
-    <t>DL-01</t>
-  </si>
-  <si>
-    <t>打揽工艺</t>
-  </si>
-  <si>
-    <t>打揽部位需喷气热缩后再按样板修剪，完成修剪后再按工艺要求尺寸标准做</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>M后技术负责人</t>
-  </si>
-  <si>
-    <t>LTC-01</t>
-  </si>
-  <si>
-    <t>链条车工艺</t>
-  </si>
-  <si>
-    <t>1、链条车拼合缝中间不可接线，防止开线
-2、链条车拼合缝落针到头收尾处，需平车订位或打结加固，防止散开
-3、链条车拼合缝处线迹调松，需有30%弹力拉开度，不可断线。</t>
   </si>
 </sst>
 </file>
@@ -554,7 +528,7 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1043,12 +1017,12 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="A2" sqref="$A2:$XFD38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" ht="14.55" spans="1:9">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1078,62 +1052,26 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="4">
-        <v>44327.4819444444</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="4">
-        <v>44725.9680555556</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" ht="42" customHeight="1" spans="1:9">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="4">
-        <v>44865.5493055556</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="4">
-        <v>44865.55</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2"/>

--- a/src/main/resources/static/excel/注意事项.xlsx
+++ b/src/main/resources/static/excel/注意事项.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>编码</t>
   </si>
@@ -34,27 +34,35 @@
     <t>创建人</t>
   </si>
   <si>
-    <t>创建</t>
-  </si>
-  <si>
     <t>修改者</t>
   </si>
   <si>
-    <t>修改</t>
+    <t>DL-01</t>
+  </si>
+  <si>
+    <t>打揽工艺</t>
+  </si>
+  <si>
+    <t>打揽部位需喷气热缩后再按样板修剪，完成修剪后再按工艺要求尺寸标准做</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>M后技术负责人</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-7804]yy/m/d\ AM/PMh:mm"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -67,6 +75,11 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -531,51 +544,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -585,115 +595,119 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1014,15 +1028,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD38"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1044,419 +1058,351 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" ht="108" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" ht="42" customHeight="1" spans="1:9">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="42" customHeight="1" spans="1:7">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="2"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="2"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="2"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="2"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="2"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="2"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="2"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="2"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="2"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="2"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="2"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="2"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="2"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="2"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="2"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="2"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="2"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="2"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="2"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="2"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="2"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="2"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="2"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="2"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="2"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="2"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="2"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="2"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
